--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H2">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J2">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>33.26841747378899</v>
+        <v>120.2152987515133</v>
       </c>
       <c r="R2">
-        <v>299.4157572641009</v>
+        <v>1081.93768876362</v>
       </c>
       <c r="S2">
-        <v>1.066138158983366E-05</v>
+        <v>6.297932048136403E-05</v>
       </c>
       <c r="T2">
-        <v>1.066138158983366E-05</v>
+        <v>6.297932048136402E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H3">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J3">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>2720.656231229247</v>
+        <v>1874.581289713256</v>
       </c>
       <c r="R3">
-        <v>24485.90608106322</v>
+        <v>16871.2316074193</v>
       </c>
       <c r="S3">
-        <v>0.0008718765862171376</v>
+        <v>0.0009820701444767956</v>
       </c>
       <c r="T3">
-        <v>0.0008718765862171378</v>
+        <v>0.0009820701444767954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H4">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J4">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>2526.058947477268</v>
+        <v>2217.965827939616</v>
       </c>
       <c r="R4">
-        <v>22734.53052729541</v>
+        <v>19961.69245145655</v>
       </c>
       <c r="S4">
-        <v>0.0008095148613151478</v>
+        <v>0.001161965092173966</v>
       </c>
       <c r="T4">
-        <v>0.0008095148613151478</v>
+        <v>0.001161965092173966</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H5">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I5">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J5">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>437.5309322376053</v>
+        <v>211.6612189498261</v>
       </c>
       <c r="R5">
-        <v>3937.778390138448</v>
+        <v>1904.950970548435</v>
       </c>
       <c r="S5">
-        <v>0.0001402135893483933</v>
+        <v>0.0001108867164176095</v>
       </c>
       <c r="T5">
-        <v>0.0001402135893483934</v>
+        <v>0.0001108867164176094</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H6">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I6">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J6">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>1019.259840358118</v>
+        <v>717.4669590061717</v>
       </c>
       <c r="R6">
-        <v>9173.338563223064</v>
+        <v>6457.202631055546</v>
       </c>
       <c r="S6">
-        <v>0.000326637661854891</v>
+        <v>0.0003758721395305814</v>
       </c>
       <c r="T6">
-        <v>0.0003266376618548911</v>
+        <v>0.0003758721395305814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.020839</v>
+        <v>13.10570166666667</v>
       </c>
       <c r="H7">
-        <v>57.06251699999999</v>
+        <v>39.317105</v>
       </c>
       <c r="I7">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="J7">
-        <v>0.002925155182898989</v>
+        <v>0.004355939447658156</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>2391.056108007376</v>
+        <v>3172.75233988148</v>
       </c>
       <c r="R7">
-        <v>21519.50497206638</v>
+        <v>28554.77105893331</v>
       </c>
       <c r="S7">
-        <v>0.0007662511025735857</v>
+        <v>0.00166216603457784</v>
       </c>
       <c r="T7">
-        <v>0.0007662511025735857</v>
+        <v>0.00166216603457784</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I8">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J8">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>5.672694193214999</v>
+        <v>29.74995830048667</v>
       </c>
       <c r="R8">
-        <v>51.054247738935</v>
+        <v>267.74962470438</v>
       </c>
       <c r="S8">
-        <v>1.817903045251484E-06</v>
+        <v>1.558563824714514E-05</v>
       </c>
       <c r="T8">
-        <v>1.817903045251484E-06</v>
+        <v>1.558563824714514E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I9">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J9">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>463.9069717334112</v>
@@ -1013,10 +1013,10 @@
         <v>4175.1627456007</v>
       </c>
       <c r="S9">
-        <v>0.0001486662012622261</v>
+        <v>0.0002430351723097123</v>
       </c>
       <c r="T9">
-        <v>0.0001486662012622261</v>
+        <v>0.0002430351723097122</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I10">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J10">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>430.7256254182466</v>
+        <v>548.8851384007172</v>
       </c>
       <c r="R10">
-        <v>3876.53062876422</v>
+        <v>4939.966245606455</v>
       </c>
       <c r="S10">
-        <v>0.000138032722978833</v>
+        <v>0.0002875541915031131</v>
       </c>
       <c r="T10">
-        <v>0.000138032722978833</v>
+        <v>0.0002875541915031131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I11">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J11">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>74.60466614054222</v>
+        <v>52.38029188450722</v>
       </c>
       <c r="R11">
-        <v>671.44199526488</v>
+        <v>471.422626960565</v>
       </c>
       <c r="S11">
-        <v>2.3908225112695E-05</v>
+        <v>2.744139243309282E-05</v>
       </c>
       <c r="T11">
-        <v>2.390822511269501E-05</v>
+        <v>2.744139243309282E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I12">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J12">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>173.7969466786972</v>
+        <v>177.5532094008283</v>
       </c>
       <c r="R12">
-        <v>1564.172520108275</v>
+        <v>1597.978884607455</v>
       </c>
       <c r="S12">
-        <v>5.569593351259978E-05</v>
+        <v>9.301794857627251E-05</v>
       </c>
       <c r="T12">
-        <v>5.569593351259979E-05</v>
+        <v>9.301794857627251E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.729894999999999</v>
       </c>
       <c r="I13">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="J13">
-        <v>0.0004987766801158274</v>
+        <v>0.001077974419837672</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>407.7059003552267</v>
+        <v>785.1683670008539</v>
       </c>
       <c r="R13">
-        <v>3669.35310319704</v>
+        <v>7066.515303007684</v>
       </c>
       <c r="S13">
-        <v>0.000130655694204222</v>
+        <v>0.0004113400767683366</v>
       </c>
       <c r="T13">
-        <v>0.000130655694204222</v>
+        <v>0.0004113400767683366</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H14">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I14">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J14">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>4403.378017469175</v>
+        <v>5580.681072951435</v>
       </c>
       <c r="R14">
-        <v>39630.40215722257</v>
+        <v>50226.12965656291</v>
       </c>
       <c r="S14">
-        <v>0.001411130943198944</v>
+        <v>0.002923650362706156</v>
       </c>
       <c r="T14">
-        <v>0.001411130943198944</v>
+        <v>0.002923650362706156</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H15">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I15">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J15">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>360103.6283473379</v>
+        <v>87022.53732975863</v>
       </c>
       <c r="R15">
-        <v>3240932.655126041</v>
+        <v>783202.8359678277</v>
       </c>
       <c r="S15">
-        <v>0.1154008060864146</v>
+        <v>0.04559003990765643</v>
       </c>
       <c r="T15">
-        <v>0.1154008060864146</v>
+        <v>0.04559003990765643</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H16">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I16">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J16">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>334346.9057076817</v>
+        <v>102963.2671131207</v>
       </c>
       <c r="R16">
-        <v>3009122.151369136</v>
+        <v>926669.4040180864</v>
       </c>
       <c r="S16">
-        <v>0.1071466638873986</v>
+        <v>0.05394119271565581</v>
       </c>
       <c r="T16">
-        <v>0.1071466638873986</v>
+        <v>0.05394119271565582</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H17">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I17">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J17">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>57911.20333558929</v>
+        <v>9825.818932686005</v>
       </c>
       <c r="R17">
-        <v>521200.8300203035</v>
+        <v>88432.37039417405</v>
       </c>
       <c r="S17">
-        <v>0.0185585454304703</v>
+        <v>0.00514762601748886</v>
       </c>
       <c r="T17">
-        <v>0.01855854543047031</v>
+        <v>0.00514762601748886</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H18">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I18">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J18">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>134908.3219440228</v>
+        <v>33306.52853818542</v>
       </c>
       <c r="R18">
-        <v>1214174.897496205</v>
+        <v>299758.7568436688</v>
       </c>
       <c r="S18">
-        <v>0.04323346913097231</v>
+        <v>0.01744888177056309</v>
       </c>
       <c r="T18">
-        <v>0.04323346913097232</v>
+        <v>0.01744888177056309</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2517.581258333333</v>
+        <v>608.3979493333333</v>
       </c>
       <c r="H19">
-        <v>7552.743774999999</v>
+        <v>1825.193848</v>
       </c>
       <c r="I19">
-        <v>0.3871709269072258</v>
+        <v>0.2022131050118309</v>
       </c>
       <c r="J19">
-        <v>0.3871709269072258</v>
+        <v>0.202213105011831</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>316478.0504762599</v>
+        <v>147286.7356835983</v>
       </c>
       <c r="R19">
-        <v>2848302.454286339</v>
+        <v>1325580.621152385</v>
       </c>
       <c r="S19">
-        <v>0.1014203114287709</v>
+        <v>0.0771617142377606</v>
       </c>
       <c r="T19">
-        <v>0.1014203114287709</v>
+        <v>0.07716171423776061</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H20">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I20">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J20">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>47.335023132294</v>
+        <v>27.93468064403467</v>
       </c>
       <c r="R20">
-        <v>426.015208190646</v>
+        <v>251.412125796312</v>
       </c>
       <c r="S20">
-        <v>1.516924406081506E-05</v>
+        <v>1.463463654872853E-05</v>
       </c>
       <c r="T20">
-        <v>1.516924406081506E-05</v>
+        <v>1.463463654872852E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H21">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I21">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J21">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>3871.008464460903</v>
+        <v>435.6003787642979</v>
       </c>
       <c r="R21">
-        <v>34839.07618014813</v>
+        <v>3920.40340887868</v>
       </c>
       <c r="S21">
-        <v>0.001240524843407689</v>
+        <v>0.0002282056954556703</v>
       </c>
       <c r="T21">
-        <v>0.00124052484340769</v>
+        <v>0.0002282056954556702</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H22">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I22">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J22">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>3594.131244943661</v>
+        <v>515.3933627943936</v>
       </c>
       <c r="R22">
-        <v>32347.18120449296</v>
+        <v>4638.540265149542</v>
       </c>
       <c r="S22">
-        <v>0.001151795233917513</v>
+        <v>0.0002700082610657525</v>
       </c>
       <c r="T22">
-        <v>0.001151795233917513</v>
+        <v>0.0002700082610657524</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H23">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I23">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J23">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>622.5284630649564</v>
+        <v>49.18416056438956</v>
       </c>
       <c r="R23">
-        <v>5602.756167584609</v>
+        <v>442.657445079506</v>
       </c>
       <c r="S23">
-        <v>0.000199498924182289</v>
+        <v>2.576697843753071E-05</v>
       </c>
       <c r="T23">
-        <v>0.000199498924182289</v>
+        <v>2.57669784375307E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H24">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I24">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J24">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>1450.224921554554</v>
+        <v>166.7192992957713</v>
       </c>
       <c r="R24">
-        <v>13052.02429399099</v>
+        <v>1500.473693661942</v>
       </c>
       <c r="S24">
-        <v>0.000464747122160565</v>
+        <v>8.734219595860427E-05</v>
       </c>
       <c r="T24">
-        <v>0.0004647471221605651</v>
+        <v>8.734219595860426E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>27.06326066666667</v>
+        <v>3.045399333333334</v>
       </c>
       <c r="H25">
-        <v>81.18978200000001</v>
+        <v>9.136198</v>
       </c>
       <c r="I25">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="J25">
-        <v>0.004161973991013034</v>
+        <v>0.001012198768699159</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>3402.04628826463</v>
+        <v>737.2591034390883</v>
       </c>
       <c r="R25">
-        <v>30618.41659438167</v>
+        <v>6635.331930951795</v>
       </c>
       <c r="S25">
-        <v>0.001090238623284162</v>
+        <v>0.000386241001232873</v>
       </c>
       <c r="T25">
-        <v>0.001090238623284162</v>
+        <v>0.0003862410012328729</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H26">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I26">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J26">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>479.800021296234</v>
+        <v>2346.737664875881</v>
       </c>
       <c r="R26">
-        <v>4318.200191666106</v>
+        <v>21120.63898388293</v>
       </c>
       <c r="S26">
-        <v>0.0001537593760773158</v>
+        <v>0.001229427078057696</v>
       </c>
       <c r="T26">
-        <v>0.0001537593760773158</v>
+        <v>0.001229427078057696</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H27">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I27">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J27">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>39237.54169286771</v>
+        <v>36593.93242065478</v>
       </c>
       <c r="R27">
-        <v>353137.8752358094</v>
+        <v>329345.391785893</v>
       </c>
       <c r="S27">
-        <v>0.01257428024534846</v>
+        <v>0.01917111234201198</v>
       </c>
       <c r="T27">
-        <v>0.01257428024534846</v>
+        <v>0.01917111234201198</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H28">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I28">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J28">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>36431.04267733894</v>
+        <v>43297.18431754921</v>
       </c>
       <c r="R28">
-        <v>327879.3840960505</v>
+        <v>389674.6588579428</v>
       </c>
       <c r="S28">
-        <v>0.01167489400434019</v>
+        <v>0.02268286379017374</v>
       </c>
       <c r="T28">
-        <v>0.0116748940043402</v>
+        <v>0.02268286379017374</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H29">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I29">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J29">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>6310.109303238076</v>
+        <v>4131.86474485091</v>
       </c>
       <c r="R29">
-        <v>56790.98372914269</v>
+        <v>37186.78270365819</v>
       </c>
       <c r="S29">
-        <v>0.00202217262688806</v>
+        <v>0.0021646332592784</v>
       </c>
       <c r="T29">
-        <v>0.00202217262688806</v>
+        <v>0.0021646332592784</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H30">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I30">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J30">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>14699.85440382065</v>
+        <v>14005.76094298936</v>
       </c>
       <c r="R30">
-        <v>132298.6896343859</v>
+        <v>126051.8484869042</v>
       </c>
       <c r="S30">
-        <v>0.004710796876274727</v>
+        <v>0.007337446366432577</v>
       </c>
       <c r="T30">
-        <v>0.004710796876274729</v>
+        <v>0.007337446366432577</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>274.3202006666667</v>
+        <v>255.8380176666667</v>
       </c>
       <c r="H31">
-        <v>822.960602</v>
+        <v>767.514053</v>
       </c>
       <c r="I31">
-        <v>0.04218684342756861</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="J31">
-        <v>0.04218684342756862</v>
+        <v>0.08503283087843555</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>34484.01994012159</v>
+        <v>61935.6895058186</v>
       </c>
       <c r="R31">
-        <v>310356.1794610944</v>
+        <v>557421.2055523674</v>
       </c>
       <c r="S31">
-        <v>0.01105094029863986</v>
+        <v>0.03244734804248116</v>
       </c>
       <c r="T31">
-        <v>0.01105094029863986</v>
+        <v>0.03244734804248116</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H32">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I32">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J32">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>6403.760371866067</v>
+        <v>19492.70012066162</v>
       </c>
       <c r="R32">
-        <v>57633.8433467946</v>
+        <v>175434.3010859545</v>
       </c>
       <c r="S32">
-        <v>0.002052184567784417</v>
+        <v>0.01021198650001955</v>
       </c>
       <c r="T32">
-        <v>0.002052184567784417</v>
+        <v>0.01021198650001955</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H33">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I33">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J33">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>523692.7958098051</v>
+        <v>303960.0725670832</v>
       </c>
       <c r="R33">
-        <v>4713235.162288246</v>
+        <v>2735640.653103749</v>
       </c>
       <c r="S33">
-        <v>0.1678254980530423</v>
+        <v>0.1592409537101451</v>
       </c>
       <c r="T33">
-        <v>0.1678254980530423</v>
+        <v>0.1592409537101451</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H34">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I34">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J34">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>486235.2168568687</v>
+        <v>359639.2739601925</v>
       </c>
       <c r="R34">
-        <v>4376116.951711819</v>
+        <v>3236753.465641733</v>
       </c>
       <c r="S34">
-        <v>0.155821634540051</v>
+        <v>0.1884106043710923</v>
       </c>
       <c r="T34">
-        <v>0.155821634540051</v>
+        <v>0.1884106043710923</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H35">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I35">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J35">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>84219.31243156566</v>
+        <v>34320.49590203028</v>
       </c>
       <c r="R35">
-        <v>757973.811884091</v>
+        <v>308884.4631182725</v>
       </c>
       <c r="S35">
-        <v>0.02698938799159179</v>
+        <v>0.01798008683537956</v>
       </c>
       <c r="T35">
-        <v>0.02698938799159179</v>
+        <v>0.01798008683537956</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H36">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I36">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J36">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>196194.9581600122</v>
+        <v>116336.0106711399</v>
       </c>
       <c r="R36">
-        <v>1765754.62344011</v>
+        <v>1047024.096040259</v>
       </c>
       <c r="S36">
-        <v>0.06287372450442894</v>
+        <v>0.06094700903855526</v>
       </c>
       <c r="T36">
-        <v>0.06287372450442895</v>
+        <v>0.06094700903855526</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3661.277099333334</v>
+        <v>2125.066569</v>
       </c>
       <c r="H37">
-        <v>10983.831298</v>
+        <v>6375.199707000001</v>
       </c>
       <c r="I37">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="J37">
-        <v>0.5630563238111778</v>
+        <v>0.7063079514735385</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>460248.8340008818</v>
+        <v>514456.2344454398</v>
       </c>
       <c r="R37">
-        <v>4142239.506007935</v>
+        <v>4630106.110008959</v>
       </c>
       <c r="S37">
-        <v>0.1474938941542792</v>
+        <v>0.2695173110183468</v>
       </c>
       <c r="T37">
-        <v>0.1474938941542792</v>
+        <v>0.2695173110183468</v>
       </c>
     </row>
   </sheetData>
